--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="63" activeTab="71"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="64" activeTab="72"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -79,6 +79,7 @@
     <sheet name="сентябрь 2023" sheetId="71" r:id="rId70"/>
     <sheet name="октябрь 2023" sheetId="72" r:id="rId71"/>
     <sheet name="ноябрь 2023" sheetId="73" r:id="rId72"/>
+    <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9050" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9168" uniqueCount="189">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -649,6 +650,21 @@
   <si>
     <t>РАСЧЕТНЫЙ ЛИСТ ЗА октябрь-2022 г.</t>
   </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА январь -2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА ноябрь-2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА январь-2024 г.</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>10 дней</t>
+  </si>
 </sst>
 </file>
 
@@ -889,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -930,6 +946,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -66663,8 +66680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -67431,7 +67448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -68194,8 +68211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68973,7 +68990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -75472,8 +75489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76496,8 +76513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -77486,6 +77503,1037 @@
       <c r="I63" s="17">
         <f>SUM(I58:I62)</f>
         <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>26250</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>40000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1313.1147540983607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>29600</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>79900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>19650</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <f>L16/L11</f>
+        <v>1309.8360655737704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>80500</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>40500</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="N22">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="N23">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="N24">
+        <f>SUM(N22:N23)</f>
+        <v>73700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>B24*C28</f>
+        <v>27500</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="36">
+        <f>FLOOR((C28*L17),50)</f>
+        <v>28800</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16">
+        <v>45500</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="16"/>
+      <c r="L31">
+        <f>SUM(L29:L30)</f>
+        <v>49200</v>
+      </c>
+      <c r="M31">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="18">
+        <f>SUM(E28:E31)</f>
+        <v>106800</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22">
+        <f>E32-I33</f>
+        <v>86800</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="17">
+        <f>SUM(I28:I32)</f>
+        <v>20000</v>
+      </c>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <f>C43*B39</f>
+        <v>28750</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="36">
+        <f>FLOOR((C43*L17),50)</f>
+        <v>30100</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16">
+        <v>30100</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="18">
+        <f>SUM(E43:E46)</f>
+        <v>98950</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22">
+        <f>E47-I43</f>
+        <v>48950</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="17">
+        <f>SUM(I43:I47)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="28"/>
+      <c r="Q50" s="31"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <f>C58*B54</f>
+        <v>28750</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="36">
+        <f>FLOOR((C58*L17),50)</f>
+        <v>30100</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="36">
+        <v>30100</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="18">
+        <f>SUM(E58:E61)</f>
+        <v>93950</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75">
+      <c r="A63" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22">
+        <f>E62-I63</f>
+        <v>53950</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="17">
+        <f>SUM(I58:I62)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67">
+        <v>4500</v>
+      </c>
+      <c r="C67">
+        <v>14000</v>
+      </c>
+      <c r="D67" s="29">
+        <v>18500</v>
+      </c>
+      <c r="F67" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="64" activeTab="72"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="65" activeTab="73"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -80,6 +80,7 @@
     <sheet name="октябрь 2023" sheetId="72" r:id="rId71"/>
     <sheet name="ноябрь 2023" sheetId="73" r:id="rId72"/>
     <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
+    <sheet name="февраль 2024" sheetId="75" r:id="rId74"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9168" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9258" uniqueCount="192">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -664,6 +665,15 @@
   </si>
   <si>
     <t>10 дней</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА февраль -2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА февраль-2024 г.</t>
+  </si>
+  <si>
+    <t>4 дня</t>
   </si>
 </sst>
 </file>
@@ -67448,7 +67458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -68211,8 +68221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76513,7 +76523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -77515,8 +77525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78539,6 +78549,796 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>35000</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>40000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1302.6315789473683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>29000</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>26000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <f>L16/L11</f>
+        <v>1447.3684210526317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>95000</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>55000</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="L27">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="L28">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>35000</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <f>FLOOR((C29*L17),50)</f>
+        <v>40500</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>36500</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+      <c r="L32">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>122000</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="L33">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>62000</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>35000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <f>FLOOR((C44*L17),50)</f>
+        <v>40500</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>36500</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>117000</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>62000</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>1500</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="29">
+        <v>6000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="65" activeTab="73"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="66" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -81,8 +81,9 @@
     <sheet name="ноябрь 2023" sheetId="73" r:id="rId72"/>
     <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
     <sheet name="февраль 2024" sheetId="75" r:id="rId74"/>
+    <sheet name="Лист2" sheetId="76" r:id="rId75"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78556,8 +78557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -79338,6 +79339,20 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="66" activeTab="74"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="67" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -81,9 +81,9 @@
     <sheet name="ноябрь 2023" sheetId="73" r:id="rId72"/>
     <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
     <sheet name="февраль 2024" sheetId="75" r:id="rId74"/>
-    <sheet name="Лист2" sheetId="76" r:id="rId75"/>
+    <sheet name="март 2024" sheetId="76" r:id="rId75"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9258" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9348" uniqueCount="194">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>4 дня</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА март -2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА март-2024 г.</t>
   </si>
 </sst>
 </file>
@@ -68222,7 +68228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -79345,14 +79351,800 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>31300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>35000</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>40000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>93900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1322.5352112676057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>26450</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>71100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>20000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <f>L16/L11</f>
+        <v>1001.4084507042254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>86450</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>46450</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="L27">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="L28">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>32500</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <f>FLOOR((C29*L17),50)</f>
+        <v>26000</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>34350</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+      <c r="L32">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>102850</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="L33">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>32850</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="L42">
+        <v>62550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="L43">
+        <v>62550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>31250</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L44">
+        <f>SUM(L42:L43)</f>
+        <v>125100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <f>FLOOR((C44*L17),50)</f>
+        <v>25000</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>34350</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>95600</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>45600</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2000</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" s="29">
+        <v>54000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -79353,8 +79353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="67" activeTab="74"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="67" activeTab="75"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -82,6 +82,7 @@
     <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
     <sheet name="февраль 2024" sheetId="75" r:id="rId74"/>
     <sheet name="март 2024" sheetId="76" r:id="rId75"/>
+    <sheet name="май 2024" sheetId="77" r:id="rId76"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9348" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9437" uniqueCount="194">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -922,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -964,6 +965,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -79353,8 +79355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -80146,6 +80148,787 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>36750</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>45000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>97800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>26450</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>63850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>17900</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>851.33333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>86100</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>41100</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>31250</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>21300</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>32600</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>95150</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>45150</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>36250</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <f>FLOOR((C44*L17),50)</f>
+        <v>24650</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>37800</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>103700</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>63700</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53" s="29">
+        <v>70000</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="67" activeTab="75"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="69" activeTab="77"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,9 @@
     <sheet name="январь 2024" sheetId="74" r:id="rId73"/>
     <sheet name="февраль 2024" sheetId="75" r:id="rId74"/>
     <sheet name="март 2024" sheetId="76" r:id="rId75"/>
-    <sheet name="май 2024" sheetId="77" r:id="rId76"/>
+    <sheet name="апрель 2024" sheetId="79" r:id="rId76"/>
+    <sheet name="май 2024" sheetId="77" r:id="rId77"/>
+    <sheet name="июнь 2024" sheetId="78" r:id="rId78"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -100,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9437" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9615" uniqueCount="194">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -71688,7 +71690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -72613,7 +72615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -74496,7 +74498,7 @@
   <dimension ref="A2:Q63"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76532,8 +76534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76774,7 +76776,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="36">
-        <v>50000</v>
+        <v>47700</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
@@ -76799,7 +76801,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="39">
         <f>SUM(E14:E17)</f>
-        <v>110850</v>
+        <v>108550</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
@@ -76817,7 +76819,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="22">
         <f>E18-I14</f>
-        <v>70850</v>
+        <v>68550</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
@@ -77534,8 +77536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78566,7 +78568,7 @@
   <dimension ref="A2:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -79355,7 +79357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -80155,8 +80157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -80924,6 +80926,1566 @@
       </c>
       <c r="G53">
         <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>36750</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>45000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>97800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>26450</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>63850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>17900</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>851.33333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>86100</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>41100</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>31250</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>21300</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>32600</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>95150</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>45150</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>36250</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <f>FLOOR((C44*L17),50)</f>
+        <v>24650</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>37800</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>103700</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>63700</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53" s="29">
+        <v>70000</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>35000</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>45000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>102300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>19400</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>64100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>31000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>971.21212121212125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>90400</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>45400</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>27500</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>21300</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>34100</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>92900</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>42900</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>30000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>23300</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>37200</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>95500</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>40500</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" s="29">
+        <v>65000</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="69" activeTab="77"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="70" activeTab="78"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -85,6 +85,7 @@
     <sheet name="апрель 2024" sheetId="79" r:id="rId76"/>
     <sheet name="май 2024" sheetId="77" r:id="rId77"/>
     <sheet name="июнь 2024" sheetId="78" r:id="rId78"/>
+    <sheet name="июль 2024" sheetId="80" r:id="rId79"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9615" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9704" uniqueCount="194">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -80937,7 +80938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -81718,8 +81719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82486,6 +82487,795 @@
       </c>
       <c r="G53">
         <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>40250</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>45000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>19400</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>31000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>95650</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>50650</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>30000</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>70000</v>
+      </c>
+      <c r="K29">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>31600</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31">
+        <v>67950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>37600</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>109200</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>39200</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>32500</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>34250</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>40750</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>112500</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>57500</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53" s="29">
+        <v>70000</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="70" activeTab="78"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="71" activeTab="79"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -86,6 +86,7 @@
     <sheet name="май 2024" sheetId="77" r:id="rId77"/>
     <sheet name="июнь 2024" sheetId="78" r:id="rId78"/>
     <sheet name="июль 2024" sheetId="80" r:id="rId79"/>
+    <sheet name="август 2024" sheetId="81" r:id="rId80"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9704" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="194">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -82499,8 +82500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -84331,6 +84332,804 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>38500</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>50000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>126600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1861.7647058823529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>22550</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>40900</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>106950</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>56950</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="N27">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28">
+        <v>28750</v>
+      </c>
+      <c r="N28">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>27500</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K29">
+        <v>39200</v>
+      </c>
+      <c r="N29">
+        <f>SUM(N27:N28)</f>
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>22550</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31">
+        <v>67950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>40900</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>100950</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>40950</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>30000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>34250</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>40750</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>110000</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>55000</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53" s="29">
+        <v>70000</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>45000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -84336,8 +84336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -84574,7 +84574,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="36">
-        <v>40900</v>
+        <v>40950</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
@@ -84599,7 +84599,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="39">
         <f>SUM(E14:E17)</f>
-        <v>106950</v>
+        <v>107000</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
@@ -84617,7 +84617,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="40">
         <f>E18-I14</f>
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
@@ -85042,7 +85042,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="36">
-        <v>34250</v>
+        <v>24600</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="16" t="s">
@@ -85059,7 +85059,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="36">
-        <v>40750</v>
+        <v>44650</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="16" t="s">
@@ -85077,7 +85077,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="18">
         <f>SUM(E44:E47)</f>
-        <v>110000</v>
+        <v>104250</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="1" t="s">
@@ -85095,7 +85095,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f>E48-I49</f>
-        <v>55000</v>
+        <v>49250</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
@@ -85113,16 +85113,16 @@
         <v>2500</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="29">
-        <v>70000</v>
+        <v>72500</v>
       </c>
       <c r="E53">
         <v>25000</v>
       </c>
       <c r="G53">
-        <v>45000</v>
+        <v>47500</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -89,17 +89,7 @@
     <sheet name="август 2024" sheetId="81" r:id="rId80"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -976,14 +966,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -58787,7 +58769,7 @@
         <v>2000</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D52" si="0">B51*C51</f>
+        <f>B51*C51</f>
         <v>24000</v>
       </c>
     </row>
@@ -58799,7 +58781,7 @@
         <v>3000</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f>B52*C52</f>
         <v>3000</v>
       </c>
       <c r="F52" t="s">
@@ -84336,7 +84318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="71" activeTab="79"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="72" activeTab="80"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -87,14 +87,14 @@
     <sheet name="июнь 2024" sheetId="78" r:id="rId78"/>
     <sheet name="июль 2024" sheetId="80" r:id="rId79"/>
     <sheet name="август 2024" sheetId="81" r:id="rId80"/>
+    <sheet name=" сентябрь 2024" sheetId="82" r:id="rId81"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9882" uniqueCount="196">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>РАСЧЕТНЫЙ ЛИСТ ЗА март-2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА сентябрь -2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА сентябрь-2024 г.</t>
   </si>
 </sst>
 </file>
@@ -84318,8 +84324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85099,6 +85105,804 @@
       </c>
       <c r="D53" s="29">
         <v>72500</v>
+      </c>
+      <c r="E53">
+        <v>25000</v>
+      </c>
+      <c r="G53">
+        <v>47500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>36750</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>50000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>110700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1729.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>20700</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>63150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>36300</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>986.71875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>98750</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>48750</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="N27">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28">
+        <v>26250</v>
+      </c>
+      <c r="N28">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>27500</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K29">
+        <v>36900</v>
+      </c>
+      <c r="N29">
+        <f>SUM(N27:N28)</f>
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30">
+        <v>63150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>21700</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>38000</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>97200</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>37200</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>26250</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>20700</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>36300</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>88250</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>33250</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" s="29">
+        <v>67500</v>
       </c>
       <c r="E53">
         <v>25000</v>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -84324,7 +84324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -85122,8 +85122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85561,7 +85561,7 @@
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K29">
         <v>36900</v>
@@ -85653,14 +85653,14 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22">
         <f>E33-I29</f>
-        <v>37200</v>
+        <v>47200</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="17">
         <f>SUM(I29:I33)</f>
-        <v>60000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -85800,7 +85800,7 @@
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="1">
-        <v>55000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -85881,14 +85881,14 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f>E48-I49</f>
-        <v>33250</v>
+        <v>43250</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="17">
         <f>SUM(I44:I48)</f>
-        <v>55000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="53" spans="1:9">

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="72" activeTab="80"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="73" activeTab="81"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -88,13 +88,14 @@
     <sheet name="июль 2024" sheetId="80" r:id="rId79"/>
     <sheet name="август 2024" sheetId="81" r:id="rId80"/>
     <sheet name=" сентябрь 2024" sheetId="82" r:id="rId81"/>
+    <sheet name=" октябрь 2024" sheetId="83" r:id="rId82"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9882" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="197">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -682,6 +683,9 @@
   </si>
   <si>
     <t>РАСЧЕТНЫЙ ЛИСТ ЗА сентябрь-2024 г.</t>
+  </si>
+  <si>
+    <t>О Артем</t>
   </si>
 </sst>
 </file>
@@ -74487,7 +74491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -75500,7 +75504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -76524,7 +76528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -85122,8 +85126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85909,6 +85913,996 @@
       </c>
       <c r="G53">
         <v>47500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>41900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>40250</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>50000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>167600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1782.9787234042553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>16950</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>41000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>738.29787234042556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>103200</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>53200</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="K27">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28">
+        <v>41900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>28750</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K29">
+        <f>SUM(K27:K28)</f>
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>16950</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>41000</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>96700</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>36700</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>30000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>17700</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>42300</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>95000</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>35000</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <f>C59*B55</f>
+        <v>30000</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="36">
+        <v>17700</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="36">
+        <v>42300</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="18">
+        <f>SUM(E59:E62)</f>
+        <v>95000</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75">
+      <c r="A64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22">
+        <f>E63-I64</f>
+        <v>50000</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="17">
+        <f>SUM(I59:I63)</f>
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="73" activeTab="81"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="74" activeTab="82"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -89,13 +89,14 @@
     <sheet name="август 2024" sheetId="81" r:id="rId80"/>
     <sheet name=" сентябрь 2024" sheetId="82" r:id="rId81"/>
     <sheet name=" октябрь 2024" sheetId="83" r:id="rId82"/>
+    <sheet name=" ноябрь 2024" sheetId="84" r:id="rId83"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10113" uniqueCount="199">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -687,6 +688,12 @@
   <si>
     <t>О Артем</t>
   </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА ноябрь -2024 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">недостача </t>
+  </si>
 </sst>
 </file>
 
@@ -927,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,6 +977,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -85924,8 +85932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85933,7 +85941,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
@@ -86903,6 +86911,1007 @@
       <c r="I64" s="17">
         <f>SUM(I59:I63)</f>
         <v>45000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>41900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>40250</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>50000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>167600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1782.9787234042553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>16950</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>41000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>738.29787234042556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>103200</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>53200</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="K27">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="K28">
+        <v>41900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>28750</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K29">
+        <f>SUM(K27:K28)</f>
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>16950</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>41000</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>96700</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>36700</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>30000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>17700</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>42300</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>95000</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>35000</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <f>C59*B55</f>
+        <v>30000</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="36">
+        <v>17700</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="36">
+        <v>42300</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="18">
+        <f>SUM(E59:E62)</f>
+        <v>95000</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75">
+      <c r="A64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22">
+        <f>E63-I64</f>
+        <v>50000</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="17">
+        <f>SUM(I59:I63)</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="42">
+        <v>45611</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="74" activeTab="82"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="76" activeTab="82"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -90,13 +90,14 @@
     <sheet name=" сентябрь 2024" sheetId="82" r:id="rId81"/>
     <sheet name=" октябрь 2024" sheetId="83" r:id="rId82"/>
     <sheet name=" ноябрь 2024" sheetId="84" r:id="rId83"/>
+    <sheet name=" декабрь 2024" sheetId="85" r:id="rId84"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10113" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10229" uniqueCount="199">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -86922,8 +86923,1012 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="28"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="28"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>B10*C14</f>
+        <v>36750</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17">
+        <v>50000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14">
+        <f>L12*L13</f>
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15">
+        <f>L14/L11</f>
+        <v>1641.1764705882354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36">
+        <v>23050</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>74650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="36">
+        <v>34450</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="41">
+        <f>L16/L11</f>
+        <v>1097.7941176470588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="39">
+        <f>SUM(E14:E17)</f>
+        <v>99250</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="40">
+        <f>E18-I14</f>
+        <v>49250</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="K27">
+        <v>68450</v>
+      </c>
+      <c r="L27">
+        <v>62250</v>
+      </c>
+      <c r="M27">
+        <f>K27-L27</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>C29*B25</f>
+        <v>28750</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="1">
+        <v>70000</v>
+      </c>
+      <c r="K29">
+        <v>68450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="36">
+        <v>25250</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>37700</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18">
+        <f>SUM(E29:E32)</f>
+        <v>101700</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22">
+        <f>E33-I29</f>
+        <v>31700</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="17">
+        <f>SUM(I29:I33)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="28"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>C44*B40</f>
+        <v>30000</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="36">
+        <v>26350</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="36">
+        <v>39350</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="18">
+        <f>SUM(E44:E47)</f>
+        <v>100700</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22">
+        <f>E48-I49</f>
+        <v>40700</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="17">
+        <f>SUM(I44:I48)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <f>C59*B55</f>
+        <v>30000</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="36">
+        <v>17700</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="36">
+        <v>42300</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="18">
+        <f>SUM(E59:E62)</f>
+        <v>95000</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75">
+      <c r="A64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22">
+        <f>E63-I64</f>
+        <v>50000</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="17">
+        <f>SUM(I59:I63)</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="42">
+        <v>45611</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Копия Расчетный лист-ноябрь 2017.xlsx
+++ b/Копия Расчетный лист-ноябрь 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="76" activeTab="82"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="76" activeTab="83"/>
   </bookViews>
   <sheets>
     <sheet name="декабрь 2017" sheetId="2" r:id="rId1"/>
@@ -92,12 +92,12 @@
     <sheet name=" ноябрь 2024" sheetId="84" r:id="rId83"/>
     <sheet name=" декабрь 2024" sheetId="85" r:id="rId84"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10229" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10228" uniqueCount="204">
   <si>
     <t>Новгородцев Максим Викторович</t>
   </si>
@@ -694,6 +694,21 @@
   </si>
   <si>
     <t xml:space="preserve">недостача </t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА декабрь -2024 г.</t>
+  </si>
+  <si>
+    <t>РАСЧЕТНЫЙ ЛИСТ ЗА декабрь-2024 г.</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Вова</t>
+  </si>
+  <si>
+    <t>Виталина</t>
   </si>
 </sst>
 </file>
@@ -76537,7 +76552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -81721,7 +81736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -84337,7 +84352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -85135,8 +85150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85934,7 +85949,7 @@
   <dimension ref="A2:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -86923,8 +86938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -87927,8 +87942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -87957,7 +87972,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -87998,7 +88013,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>1750</v>
+        <v>2000</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -88036,7 +88051,7 @@
         <v>173</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -88057,7 +88072,7 @@
         <v>174</v>
       </c>
       <c r="L12">
-        <v>41900</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -88087,12 +88102,12 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f>B10*C14</f>
-        <v>40250</v>
+        <v>42000</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
@@ -88100,14 +88115,14 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="17">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K14" t="s">
         <v>176</v>
       </c>
       <c r="L14">
         <f>L12*L13</f>
-        <v>167600</v>
+        <v>153600</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -88118,7 +88133,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="16" t="s">
@@ -88131,7 +88146,7 @@
       </c>
       <c r="L15">
         <f>L14/L11</f>
-        <v>1782.9787234042553</v>
+        <v>1828.5714285714287</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -88142,7 +88157,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="36">
-        <v>16950</v>
+        <v>17350</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="16" t="s">
@@ -88165,7 +88180,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="36">
-        <v>41000</v>
+        <v>38400</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="16" t="s">
@@ -88178,7 +88193,7 @@
       </c>
       <c r="L17" s="41">
         <f>L16/L11</f>
-        <v>738.29787234042556</v>
+        <v>826.19047619047615</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -88190,7 +88205,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="39">
         <f>SUM(E14:E17)</f>
-        <v>103200</v>
+        <v>107750</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
@@ -88208,7 +88223,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="40">
         <f>E18-I14</f>
-        <v>53200</v>
+        <v>47750</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
@@ -88232,7 +88247,7 @@
     <row r="22" spans="1:12">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -88244,7 +88259,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -88273,7 +88288,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -88350,12 +88365,12 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>C29*B25</f>
-        <v>28750</v>
+        <v>36000</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
@@ -88363,7 +88378,7 @@
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K29">
         <f>SUM(K27:K28)</f>
@@ -88378,7 +88393,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="16" t="s">
@@ -88395,7 +88410,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="36">
-        <v>16950</v>
+        <v>19800</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="16" t="s">
@@ -88412,7 +88427,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16">
-        <v>41000</v>
+        <v>43900</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="16" t="s">
@@ -88431,7 +88446,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="18">
         <f>SUM(E29:E32)</f>
-        <v>96700</v>
+        <v>104700</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="1" t="s">
@@ -88449,14 +88464,14 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22">
         <f>E33-I29</f>
-        <v>36700</v>
+        <v>24700</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="17">
         <f>SUM(I29:I33)</f>
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -88471,7 +88486,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -88483,7 +88498,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -88512,7 +88527,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="2">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -88546,6 +88561,23 @@
       <c r="I41" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="K41">
+        <v>21</v>
+      </c>
+      <c r="L41">
+        <f>K41*1250</f>
+        <v>26250</v>
+      </c>
+      <c r="M41">
+        <v>5000</v>
+      </c>
+      <c r="N41">
+        <v>38400</v>
+      </c>
+      <c r="O41">
+        <f>SUM(L41:N41)</f>
+        <v>69650</v>
+      </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8"/>
@@ -88583,7 +88615,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
@@ -88596,7 +88628,7 @@
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="1">
-        <v>60000</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -88624,7 +88656,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="36">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="16" t="s">
@@ -88641,7 +88673,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="36">
-        <v>42300</v>
+        <v>36550</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="16" t="s">
@@ -88659,7 +88691,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="18">
         <f>SUM(E44:E47)</f>
-        <v>95000</v>
+        <v>88050</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="1" t="s">
@@ -88677,14 +88709,14 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f>E48-I49</f>
-        <v>35000</v>
+        <v>28550</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="17">
         <f>SUM(I44:I48)</f>
-        <v>60000</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -88692,7 +88724,7 @@
         <v>172</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -88704,7 +88736,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -88733,7 +88765,7 @@
         <v>29</v>
       </c>
       <c r="B55" s="2">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -88804,12 +88836,12 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
         <f>C59*B55</f>
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="1" t="s">
@@ -88817,7 +88849,7 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="1">
-        <v>45000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -88845,7 +88877,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="36">
-        <v>17700</v>
+        <v>15700</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="16" t="s">
@@ -88862,7 +88894,7 @@
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="36">
-        <v>42300</v>
+        <v>34750</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="16" t="s">
@@ -88880,7 +88912,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="18">
         <f>SUM(E59:E62)</f>
-        <v>95000</v>
+        <v>83950</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="1" t="s">
@@ -88898,26 +88930,18 @@
       <c r="D64" s="21"/>
       <c r="E64" s="22">
         <f>E63-I64</f>
-        <v>50000</v>
+        <v>43950</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="17">
         <f>SUM(I59:I63)</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="42">
-        <v>45611</v>
-      </c>
-      <c r="B68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68">
-        <v>2000</v>
-      </c>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
